--- a/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -23,10 +23,121 @@
     <t xml:space="preserve">工序名称</t>
   </si>
   <si>
+    <t xml:space="preserve">设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追溯部分(硬件及软件开发费用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工装治具部分</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">2023年</t>
+    <t xml:space="preserve">设备1名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备1数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备1单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备2名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备2数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备2单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备3名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备3数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备3单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备总价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件设备1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价设备1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件设备2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单价设备2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件总价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追溯软件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开发费(追溯)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开图软件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开发费(开图)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">软硬件总价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具1名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具2名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工装名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工装单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试线名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线束单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工装治具检具总价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023上半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023下半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024上半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024下半年</t>
   </si>
   <si>
     <t xml:space="preserve">标准人工工时</t>
@@ -36,39 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">人员数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工序序号1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工序名称1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工序序号2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工序名称2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
 </sst>
 </file>
@@ -133,8 +211,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,9 +417,13 @@
     <col min="1" max="1" width="11.71875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.71875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -274,122 +437,239 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
+      <c r="Z1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="51" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="L2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="N2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="31" t="s">
+      <c r="O2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>11</v>
+      <c r="P2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY2" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA2" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
   </mergeCells>
+  <dataValidations disablePrompts="0" count="12">
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="B2:B65536">
+      <formula1><![CDATA["1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="C2:C65536">
+      <formula1><![CDATA["超声波清洗,PLASMA处理,标签打印,标签烘烤,标签贴附,镜头清洗,线路板清洗,线路板点胶,镜头镜座点胶,镜座与线路板组装,线路板组件检查,AA,调焦,烘烤,半成品测试,密封圈组装,上壳组件组装,上下壳组件组装,超声波焊接,出图测试,高低温启动测试,支架组装,气密性测试,成品测试,前端泡棉贴附,尾线组装,外观检查,其他_周转,其他_光源_标板,其他_电脑_气管_FFU"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="D2:D65536">
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="G2:G65536">
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="J2:J65536">
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="N2:N65536">
+      <formula1><![CDATA["222,2,3,1,2234,123,1234,自动扫码枪,0,触控一体机,交换机(POE)"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="Q2:Q65536">
+      <formula1><![CDATA["222,2,3,1,2234,123,1234,自动扫码枪,0,触控一体机,交换机(POE)"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="Z2:Z65536">
+      <formula1><![CDATA["1,5,,半成品测试治具,0,密封圈组装治具,上壳组装治具,上下壳组装治具,激光焊接治具(金属）,超声波焊接治具,出图测试治具,高低温测试治具,支架组装治具,气密性测试治具,成品测试治具,前端泡棉贴附治具,尾线组装治具,外观检查治具,250*400吸塑盒,500*400吸塑盒,普通标板,色块标板,调心治具,ATE测试治具,功能测试治具"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AC2:AC65536">
+      <formula1><![CDATA["1,5,,半成品测试治具,0,密封圈组装治具,上壳组装治具,上下壳组装治具,激光焊接治具(金属）,超声波焊接治具,出图测试治具,高低温测试治具,支架组装治具,气密性测试治具,成品测试治具,前端泡棉贴附治具,尾线组装治具,外观检查治具,250*400吸塑盒,500*400吸塑盒,普通标板,色块标板,调心治具,ATE测试治具,功能测试治具"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AF2:AF65536">
+      <formula1><![CDATA["0"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AI2:AI65536">
+      <formula1><![CDATA["超声波清洗,PLASMA处理,标签打印,标签烘烤,标签贴附,镜头清洗,线路板清洗,线路板点胶,镜头镜座点胶,镜座与线路板组装,线路板组件检查,AA,调焦,烘烤,半成品测试,密封圈组装,上壳组件组装,上下壳组件组装,超声波焊接,出图测试,高低温启动测试,支架组装,气密性测试,成品测试,前端泡棉贴附,尾线组装,外观检查,其他_周转,其他_光源_标板,其他_电脑_气管_FFU"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AL2:AL65536">
+      <formula1><![CDATA["0,POC-0.2m,POC-8m"]]></formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
@@ -6,13 +6,19 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="工时工序模版" sheetId="1" r:id="rId3"/>
+    <sheet name="工序库" sheetId="2" r:id="rId4"/>
+    <sheet name="设备库" sheetId="3" r:id="rId5"/>
+    <sheet name="硬件软件库" sheetId="4" r:id="rId6"/>
+    <sheet name="治具检具" sheetId="5" r:id="rId7"/>
+    <sheet name="工装库" sheetId="6" r:id="rId8"/>
+    <sheet name="工时库" sheetId="7" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -35,9 +41,18 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">工序维护人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">设备1名称</t>
   </si>
   <si>
+    <t xml:space="preserve">设备1状态</t>
+  </si>
+  <si>
     <t xml:space="preserve">设备1数量</t>
   </si>
   <si>
@@ -47,6 +62,9 @@
     <t xml:space="preserve">设备2名称</t>
   </si>
   <si>
+    <t xml:space="preserve">设备2状态</t>
+  </si>
+  <si>
     <t xml:space="preserve">设备2数量</t>
   </si>
   <si>
@@ -56,6 +74,9 @@
     <t xml:space="preserve">设备3名称</t>
   </si>
   <si>
+    <t xml:space="preserve">设备3状态</t>
+  </si>
+  <si>
     <t xml:space="preserve">设备3数量</t>
   </si>
   <si>
@@ -65,6 +86,18 @@
     <t xml:space="preserve">设备总价</t>
   </si>
   <si>
+    <t xml:space="preserve">设备1供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备2供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备3供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">维护人</t>
+  </si>
+  <si>
     <t xml:space="preserve">硬件设备1</t>
   </si>
   <si>
@@ -83,9 +116,48 @@
     <t xml:space="preserve">硬件总价</t>
   </si>
   <si>
+    <t xml:space="preserve">硬件1名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件1状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件1单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件1供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件2名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件2状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件2单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硬件2供应商</t>
+  </si>
+  <si>
     <t xml:space="preserve">追溯软件</t>
   </si>
   <si>
+    <t xml:space="preserve">追溯软件费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">软件名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">软件状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">软件单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">软件供应商</t>
+  </si>
+  <si>
     <t xml:space="preserve">开发费(追溯)</t>
   </si>
   <si>
@@ -101,18 +173,45 @@
     <t xml:space="preserve">治具1名称</t>
   </si>
   <si>
+    <t xml:space="preserve">治具1状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具1单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具1供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具2名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具2状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具2单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治具2供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具单价供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检具维护人</t>
+  </si>
+  <si>
     <t xml:space="preserve">治具单价</t>
   </si>
   <si>
-    <t xml:space="preserve">治具2名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检具名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检具单价</t>
-  </si>
-  <si>
     <t xml:space="preserve">工装名称</t>
   </si>
   <si>
@@ -128,16 +227,25 @@
     <t xml:space="preserve">工装治具检具总价</t>
   </si>
   <si>
-    <t xml:space="preserve">2023上半年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023下半年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024上半年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024下半年</t>
+    <t xml:space="preserve">工装供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试线单价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工装维护人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工时维护人</t>
   </si>
   <si>
     <t xml:space="preserve">标准人工工时</t>
@@ -211,11 +319,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,7 +528,6 @@
     <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19.53125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.53125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,17 +549,14 @@
       <c r="Z1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" s="51" t="s">
-        <v>41</v>
+      <c r="AS1" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="53" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -469,154 +570,154 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="36" t="s">
-        <v>18</v>
-      </c>
       <c r="AE2" s="37" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="38" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AH2" s="40" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="41" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="AJ2" s="42" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK2" s="43" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL2" s="44" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="AM2" s="45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AN2" s="46" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AO2" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS2" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU2" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV2" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX2" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY2" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA2" s="63" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="62" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +725,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
@@ -640,36 +740,398 @@
       <formula1><![CDATA["超声波清洗,PLASMA处理,标签打印,标签烘烤,标签贴附,镜头清洗,线路板清洗,线路板点胶,镜头镜座点胶,镜座与线路板组装,线路板组件检查,AA,调焦,烘烤,半成品测试,密封圈组装,上壳组件组装,上下壳组件组装,超声波焊接,出图测试,高低温启动测试,支架组装,气密性测试,成品测试,前端泡棉贴附,尾线组装,外观检查,其他_周转,其他_光源_标板,其他_电脑_气管_FFU"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="D2:D65536">
-      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备,高低温测试设备1"]]></formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="G2:G65536">
-      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="H2:H65536">
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备,高低温测试设备1"]]></formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="J2:J65536">
-      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,超声波清洗设备,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备"]]></formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="N2:N65536">
-      <formula1><![CDATA["222,2,3,1,2234,123,1234,自动扫码枪,0,触控一体机,交换机(POE)"]]></formula1>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="L2:L65536">
+      <formula1><![CDATA["device1,device2,device3,2,1,设备1名称,设备2名称,设备3名称,0,PLASMA设备,标签打印机(喷墨式),激光打印设备,普通烤箱,贴标机,全自动贴标,目视式显微镜,离子风机,自动点胶机,自动螺钉机,手动电批(大号),显微镜(显示器),AA设备V5,全自动双规AA,CCM广角机台,电脑(显示器0主机),六格烤箱(半自动),半成品测试设备,超声波焊接设备,高低温测试设备1"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="Q2:Q65536">
-      <formula1><![CDATA["222,2,3,1,2234,123,1234,自动扫码枪,0,触控一体机,交换机(POE)"]]></formula1>
+      <formula1><![CDATA["222,2,3,1,2234,123,1234,触控一体机,自动扫码枪,0,交换机(POE)"]]></formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="Z2:Z65536">
-      <formula1><![CDATA["1,5,,半成品测试治具,0,密封圈组装治具,上壳组装治具,上下壳组装治具,激光焊接治具(金属）,超声波焊接治具,出图测试治具,高低温测试治具,支架组装治具,气密性测试治具,成品测试治具,前端泡棉贴附治具,尾线组装治具,外观检查治具,250*400吸塑盒,500*400吸塑盒,普通标板,色块标板,调心治具,ATE测试治具,功能测试治具"]]></formula1>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="T2:T65536">
+      <formula1><![CDATA["222,2,3,1,2234,123,1234,触控一体机,自动扫码枪,0,交换机(POE)"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AC2:AC65536">
       <formula1><![CDATA["1,5,,半成品测试治具,0,密封圈组装治具,上壳组装治具,上下壳组装治具,激光焊接治具(金属）,超声波焊接治具,出图测试治具,高低温测试治具,支架组装治具,气密性测试治具,成品测试治具,前端泡棉贴附治具,尾线组装治具,外观检查治具,250*400吸塑盒,500*400吸塑盒,普通标板,色块标板,调心治具,ATE测试治具,功能测试治具"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AF2:AF65536">
-      <formula1><![CDATA["0"]]></formula1>
+      <formula1><![CDATA["1,5,,半成品测试治具,0,密封圈组装治具,上壳组装治具,上下壳组装治具,激光焊接治具(金属）,超声波焊接治具,出图测试治具,高低温测试治具,支架组装治具,气密性测试治具,成品测试治具,前端泡棉贴附治具,尾线组装治具,外观检查治具,250*400吸塑盒,500*400吸塑盒,普通标板,色块标板,调心治具,ATE测试治具,功能测试治具"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AI2:AI65536">
-      <formula1><![CDATA["超声波清洗,PLASMA处理,标签打印,标签烘烤,标签贴附,镜头清洗,线路板清洗,线路板点胶,镜头镜座点胶,镜座与线路板组装,线路板组件检查,AA,调焦,烘烤,半成品测试,密封圈组装,上壳组件组装,上下壳组件组装,超声波焊接,出图测试,高低温启动测试,支架组装,气密性测试,成品测试,前端泡棉贴附,尾线组装,外观检查,其他_周转,其他_光源_标板,其他_电脑_气管_FFU"]]></formula1>
+      <formula1><![CDATA["111111,0"]]></formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AL2:AL65536">
+      <formula1><![CDATA["0,RLG工装,RLG工装(1拖16)"]]></formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="0" showErrorMessage="1" errorTitle="输入不合法" error="请输入和选择下拉列表中的值。" sqref="AO2:AO65536">
       <formula1><![CDATA["0,POC-0.2m,POC-8m"]]></formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.53125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/FoundationWorkingHour.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="223">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -137,13 +137,16 @@
     <t xml:space="preserve">工装治具检具总价</t>
   </si>
   <si>
-    <t xml:space="preserve">2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2030</t>
+    <t xml:space="preserve">2031上半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031下半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032上半年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032下半年</t>
   </si>
   <si>
     <t xml:space="preserve">标准人工工时</t>
@@ -155,24 +158,315 @@
     <t xml:space="preserve">人员数量</t>
   </si>
   <si>
-    <t xml:space="preserve">4181</t>
+    <t xml:space="preserve">4855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">补胶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动点胶机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动扫码枪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追溯软件1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通用治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">气密性设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成品测试设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开图软件1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">气密性测试治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成品测试治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLG工装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC-0.2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">气密性测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">气密性设备(隧道式)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触控一体机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高低温启动测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高低温测试设备1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工控主机+显示器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高低温测试治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLG工装(1拖16)</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">POC-8m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上下壳组件组装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自动螺钉机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手动电批(大号)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上下壳组装治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激光焊接治具(金属）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上壳组件组装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上壳组装治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烘烤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通烤箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">六格烤箱(半自动)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烘烤治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4862</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA</t>
   </si>
   <si>
     <t xml:space="preserve">AA设备V5</t>
   </si>
   <si>
-    <t xml:space="preserve">新增</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">1200000</t>
   </si>
   <si>
@@ -182,88 +476,211 @@
     <t xml:space="preserve">1700000</t>
   </si>
   <si>
+    <t xml:space="preserve">5800000</t>
+  </si>
+  <si>
     <t xml:space="preserve">AA治具</t>
   </si>
   <si>
-    <t xml:space="preserve">10000</t>
-  </si>
-  <si>
     <t xml:space="preserve">AEI托盘</t>
   </si>
   <si>
     <t xml:space="preserve">80000</t>
   </si>
   <si>
-    <t xml:space="preserve">RLG工装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC-0.2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4863</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4185</t>
+    <t xml:space="preserve">线路板组件检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">显微镜(显示器)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目视式显微镜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线路板组件检查治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜座与线路板组装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜座组件组装治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线路板点胶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点胶治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线路板清洗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">离子风机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线路板清洗治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜头清洗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镜头清洗治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签贴附</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贴标机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全自动贴标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">793000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签贴附治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签烘烤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签打印</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签打印机(喷墨式)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激光打印设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASMA处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASMA设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLASMA治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超声波清洗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超声波清洗设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超声波清洗治具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4873</t>
   </si>
 </sst>
 </file>
@@ -328,8 +745,2459 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="1150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,6 +4215,7 @@
     <col min="7" max="7" width="19.53125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19.53125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.53125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.53125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1377,6 +4246,9 @@
       <c r="AY1" s="53" t="s">
         <v>43</v>
       </c>
+      <c r="BB1" s="54" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
@@ -1511,837 +4383,3259 @@
       <c r="AR2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AS2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="56" t="s">
+      <c r="AT2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW2" s="58" t="s">
+      <c r="AU2" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="59" t="s">
+      <c r="AW2" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ2" s="61" t="s">
+      <c r="AX2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="BA2" s="62" t="s">
+      <c r="AZ2" s="62" t="s">
         <v>46</v>
+      </c>
+      <c r="BA2" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB2" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="66" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="73" t="s">
+      <c r="H3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="91" t="s">
+      <c r="Q3" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE3" s="93" t="s">
+      <c r="U3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="94" t="s">
+      <c r="V3" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH3" s="96" t="s">
+      <c r="W3" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ3" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK3" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL3" s="100" t="s">
+      <c r="Y3" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN3" s="102" t="s">
+      <c r="Z3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="103" t="s">
+      <c r="AC3" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AP3" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ3" s="106" t="s">
+      <c r="AD3" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS3" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT3" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU3" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV3" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW3" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX3" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY3" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ3" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA3" s="116" t="s">
-        <v>52</v>
+      <c r="AF3" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ3" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR3" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS3" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV3" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW3" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY3" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ3" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA3" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB3" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC3" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" s="123" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="118" t="s">
+      <c r="A4" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="122" t="s">
+      <c r="C4" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="124" t="s">
+      <c r="D4" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="128" t="s">
+      <c r="E4" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="132" t="s">
+      <c r="I4" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="133" t="s">
+      <c r="L4" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="135" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="136" t="s">
+      <c r="Q4" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="141" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="142" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="137" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="139" t="s">
+      <c r="V4" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="142" t="s">
+      <c r="X4" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="148" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" s="144" t="s">
+      <c r="AA4" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="145" t="s">
+      <c r="AB4" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="147" t="s">
+      <c r="AC4" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="148" t="s">
+      <c r="AD4" s="153" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="150" t="s">
+      <c r="AF4" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="AI4" s="151" t="s">
+      <c r="AG4" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="AJ4" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK4" s="153" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="154" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM4" s="155" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN4" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="157" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP4" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ4" s="160" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" s="161" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS4" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT4" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU4" s="164" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV4" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW4" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX4" s="167" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY4" s="168" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ4" s="169" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA4" s="170" t="s">
-        <v>67</v>
+      <c r="AH4" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="158" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL4" s="161" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="163" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP4" s="165" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR4" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS4" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT4" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV4" s="172" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW4" s="173" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX4" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY4" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ4" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA4" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB4" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC4" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD4" s="180" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="171" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="173" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="174" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="176" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="177" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="178" t="s">
+      <c r="A5" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="179" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="180" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="181" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="185" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="186" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="188" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="189" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="190" t="s">
+      <c r="E5" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="186" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="188" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="190" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="191" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="192" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="195" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="196" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="197" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="198" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="200" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="202" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="203" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="205" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="206" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="207" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="209" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="191" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="192" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="193" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="194" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="195" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="196" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="197" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB5" s="198" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC5" s="199" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD5" s="200" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="201" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" s="202" t="s">
+      <c r="AE5" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="AG5" s="203" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="204" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI5" s="205" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ5" s="206" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL5" s="208" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="209" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN5" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO5" s="211" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP5" s="212" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ5" s="214" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR5" s="215" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS5" s="216" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT5" s="217" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU5" s="218" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV5" s="219" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW5" s="220" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX5" s="221" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY5" s="222" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ5" s="223" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA5" s="224" t="s">
-        <v>67</v>
+      <c r="AF5" s="212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="213" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="214" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="215" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="216" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK5" s="217" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="218" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM5" s="219" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN5" s="220" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO5" s="221" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" s="222" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ5" s="224" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR5" s="225" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" s="226" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT5" s="227" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU5" s="228" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV5" s="229" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW5" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX5" s="231" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY5" s="232" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" s="233" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA5" s="234" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB5" s="235" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC5" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD5" s="237" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="225" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="226" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="227" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="228" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="230" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="231" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="232" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="233" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="234" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="235" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="236" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="237" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="238" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="240" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="241" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="242" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="243" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="244" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="245" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="246" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="247" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="248" t="s">
+      <c r="A6" s="238" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="239" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="240" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="241" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="249" t="s">
+      <c r="F6" s="243" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="244" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="245" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="250" t="s">
+      <c r="J6" s="247" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="248" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="250" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="251" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="252" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="255" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="256" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="257" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="258" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="259" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="260" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" s="261" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="262" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="251" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB6" s="252" t="s">
+      <c r="AA6" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="253" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD6" s="254" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE6" s="255" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="256" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" s="257" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" s="258" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI6" s="259" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ6" s="260" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK6" s="261" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="262" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="263" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN6" s="264" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO6" s="265" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP6" s="266" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ6" s="268" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR6" s="269" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS6" s="270" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT6" s="271" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU6" s="272" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV6" s="273" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW6" s="274" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX6" s="275" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY6" s="276" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ6" s="277" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA6" s="278" t="s">
-        <v>67</v>
+      <c r="AB6" s="265" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" s="266" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD6" s="267" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE6" s="268" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF6" s="269" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" s="271" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="272" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" s="273" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="274" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="275" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM6" s="276" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN6" s="277" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO6" s="278" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP6" s="279" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ6" s="281" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR6" s="282" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS6" s="283" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT6" s="284" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU6" s="285" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV6" s="286" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW6" s="287" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX6" s="288" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" s="289" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ6" s="290" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA6" s="291" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB6" s="292" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC6" s="293" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD6" s="294" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="279" t="s">
+      <c r="A7" s="295" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="296" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="298" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="299" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="300" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="301" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="302" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="303" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="304" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="305" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="306" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="307" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="308" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="309" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="310" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="311" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="312" t="s">
+        <v>105</v>
+      </c>
+      <c r="S7" s="313" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="314" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="315" t="s">
+        <v>105</v>
+      </c>
+      <c r="V7" s="316" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="317" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="318" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="319" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="320" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="321" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7" s="322" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC7" s="323" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD7" s="324" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE7" s="325" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF7" s="326" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG7" s="327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="328" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI7" s="329" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ7" s="330" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK7" s="331" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="332" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM7" s="333" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN7" s="334" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO7" s="335" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP7" s="336" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ7" s="338" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR7" s="339" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS7" s="340" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT7" s="341" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU7" s="342" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV7" s="343" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW7" s="344" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX7" s="345" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY7" s="346" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ7" s="347" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="348" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB7" s="349" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC7" s="350" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD7" s="351" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="352" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="353" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="354" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="355" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="356" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="357" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="358" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="359" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="360" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="361" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="362" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="363" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="364" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="365" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="366" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="367" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="368" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="369" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="370" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="371" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="372" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="373" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="374" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" s="375" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="376" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="377" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="378" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="379" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC8" s="380" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD8" s="381" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="382" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="383" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="384" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH8" s="385" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="386" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ8" s="387" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" s="388" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL8" s="389" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM8" s="390" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" s="391" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO8" s="392" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP8" s="393" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" s="395" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR8" s="396" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS8" s="397" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT8" s="398" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" s="399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV8" s="400" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW8" s="401" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX8" s="402" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY8" s="403" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ8" s="404" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA8" s="405" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB8" s="406" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC8" s="407" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD8" s="408" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="409" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="410" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="411" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="412" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="414" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="415" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="416" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="417" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="418" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="419" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="420" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="421" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="422" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="423" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="424" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="425" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="426" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="427" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="428" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="429" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="430" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" s="431" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" s="432" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="433" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="434" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="435" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="436" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC9" s="437" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="438" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="439" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF9" s="440" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="441" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" s="442" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI9" s="443" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ9" s="444" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK9" s="445" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" s="446" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM9" s="447" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN9" s="448" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO9" s="449" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP9" s="450" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ9" s="452" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR9" s="453" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS9" s="454" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="455" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU9" s="456" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV9" s="457" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW9" s="458" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX9" s="459" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY9" s="460" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ9" s="461" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA9" s="462" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB9" s="463" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC9" s="464" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD9" s="465" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="466" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="467" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="468" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="469" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="470" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="471" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="472" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="473" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="474" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="475" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="476" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="477" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="478" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="479" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="480" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="481" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="482" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="483" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="484" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="485" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="486" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="487" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="488" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="489" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="490" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="491" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="492" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="493" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" s="494" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD10" s="495" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE10" s="496" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" s="497" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG10" s="498" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH10" s="499" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI10" s="500" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ10" s="501" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK10" s="502" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" s="503" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" s="504" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN10" s="505" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" s="506" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP10" s="507" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ10" s="509" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR10" s="510" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS10" s="511" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT10" s="512" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU10" s="513" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV10" s="514" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW10" s="515" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX10" s="516" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY10" s="517" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ10" s="518" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA10" s="519" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB10" s="520" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC10" s="521" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD10" s="522" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="523" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="524" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="525" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="526" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="527" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="528" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="529" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="530" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="531" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="532" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="533" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="534" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="535" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="536" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="537" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="538" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="539" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="540" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="541" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="542" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="543" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="544" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="545" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="546" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" s="547" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" s="548" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="549" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB11" s="550" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC11" s="551" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD11" s="552" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE11" s="553" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF11" s="554" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG11" s="555" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" s="556" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" s="557" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" s="558" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK11" s="559" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" s="560" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM11" s="561" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN11" s="562" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO11" s="563" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP11" s="564" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ11" s="566" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR11" s="567" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS11" s="568" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT11" s="569" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU11" s="570" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV11" s="571" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW11" s="572" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX11" s="573" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY11" s="574" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ11" s="575" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA11" s="576" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB11" s="577" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC11" s="578" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD11" s="579" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="580" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="581" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="280" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="281" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="282" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="283" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="284" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="285" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="286" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="287" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="288" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="289" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="290" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="291" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="292" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="293" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="294" t="s">
+      <c r="C12" s="582" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="583" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="584" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="585" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="586" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="587" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="588" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="589" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="590" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="591" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="592" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="593" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="594" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="595" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="596" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="597" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="598" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="599" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="600" t="s">
+        <v>176</v>
+      </c>
+      <c r="V12" s="601" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" s="602" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" s="603" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="604" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="605" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="606" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="607" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC12" s="608" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD12" s="609" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE12" s="610" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="611" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG12" s="612" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="613" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="614" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="615" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12" s="616" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL12" s="617" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="618" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN12" s="619" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO12" s="620" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP12" s="621" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="623" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR12" s="624" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS12" s="625" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT12" s="626" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU12" s="627" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV12" s="628" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW12" s="629" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX12" s="630" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY12" s="631" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ12" s="632" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA12" s="633" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB12" s="634" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC12" s="635" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD12" s="636" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="637" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="638" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="639" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="640" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="641" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="642" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="643" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="644" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="645" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="646" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="647" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="648" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="649" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="650" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="651" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="652" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="653" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="654" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="655" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="656" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="657" t="s">
+        <v>176</v>
+      </c>
+      <c r="V13" s="658" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="659" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" s="660" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="661" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="662" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="663" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" s="664" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC13" s="665" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD13" s="666" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE13" s="667" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF13" s="668" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG13" s="669" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH13" s="670" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI13" s="671" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ13" s="672" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" s="673" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL13" s="674" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13" s="675" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN13" s="676" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO13" s="677" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP13" s="678" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" s="680" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR13" s="681" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS13" s="682" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT13" s="683" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU13" s="684" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV13" s="685" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW13" s="686" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX13" s="687" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY13" s="688" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ13" s="689" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA13" s="690" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB13" s="691" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC13" s="692" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD13" s="693" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="694" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="695" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="696" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="697" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="698" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="699" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="700" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="701" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="702" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="703" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="704" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="705" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="706" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="707" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="708" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="709" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q14" s="710" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="711" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="712" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="713" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="714" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="715" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="716" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="717" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="718" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="719" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="720" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB14" s="721" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14" s="722" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD14" s="723" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE14" s="724" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF14" s="725" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG14" s="726" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH14" s="727" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI14" s="728" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ14" s="729" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK14" s="730" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL14" s="731" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM14" s="732" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN14" s="733" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO14" s="734" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP14" s="735" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ14" s="737" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR14" s="738" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS14" s="739" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT14" s="740" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU14" s="741" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV14" s="742" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW14" s="743" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX14" s="744" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY14" s="745" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ14" s="746" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA14" s="747" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB14" s="748" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC14" s="749" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD14" s="750" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="751" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="752" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="753" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="754" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="755" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="756" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="757" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="758" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="759" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="760" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="761" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="762" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="763" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="764" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="765" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="766" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q15" s="767" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="768" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="769" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="770" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="771" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="772" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="773" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="774" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="775" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z15" s="776" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="777" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB15" s="778" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" s="779" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD15" s="780" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE15" s="781" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF15" s="782" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG15" s="783" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH15" s="784" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI15" s="785" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ15" s="786" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15" s="787" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL15" s="788" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM15" s="789" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN15" s="790" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO15" s="791" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="792" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ15" s="794" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR15" s="795" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS15" s="796" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT15" s="797" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU15" s="798" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV15" s="799" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW15" s="800" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX15" s="801" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY15" s="802" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ15" s="803" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA15" s="804" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB15" s="805" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC15" s="806" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD15" s="807" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="808" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="809" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="810" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="811" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="812" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="813" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="814" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="815" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="816" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="817" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="818" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="295" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="296" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="297" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="298" t="s">
+      <c r="L16" s="819" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="820" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="821" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="822" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="823" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="824" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="825" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="826" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="827" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="828" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="829" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="830" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="831" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="832" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="833" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="834" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" s="835" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" s="836" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD16" s="837" t="s">
         <v>72</v>
       </c>
-      <c r="U7" s="299" t="s">
-        <v>67</v>
-      </c>
-      <c r="V7" s="300" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="301" t="s">
+      <c r="AE16" s="838" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="839" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG16" s="840" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH16" s="841" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" s="842" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ16" s="843" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16" s="844" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="845" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM16" s="846" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN16" s="847" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO16" s="848" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP16" s="849" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ16" s="851" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR16" s="852" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS16" s="853" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT16" s="854" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU16" s="855" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV16" s="856" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW16" s="857" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX16" s="858" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY16" s="859" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ16" s="860" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA16" s="861" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB16" s="862" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC16" s="863" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD16" s="864" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="865" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="866" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="867" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="868" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="869" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="870" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="871" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="872" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="873" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="874" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="875" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="876" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="877" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="878" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="879" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="880" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="881" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="882" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="883" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="884" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" s="885" t="s">
+        <v>72</v>
+      </c>
+      <c r="V17" s="886" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="887" t="s">
         <v>73</v>
       </c>
-      <c r="X7" s="302" t="s">
+      <c r="X17" s="888" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" s="889" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="890" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA17" s="891" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB17" s="892" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC17" s="893" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD17" s="894" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE17" s="895" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF17" s="896" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG17" s="897" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH17" s="898" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI17" s="899" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ17" s="900" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK17" s="901" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" s="902" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM17" s="903" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN17" s="904" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO17" s="905" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP17" s="906" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" s="908" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR17" s="909" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS17" s="910" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT17" s="911" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU17" s="912" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV17" s="913" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW17" s="914" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX17" s="915" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY17" s="916" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ17" s="917" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA17" s="918" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB17" s="919" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC17" s="920" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD17" s="921" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="922" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="923" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="924" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="925" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="926" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="303" t="s">
+      <c r="F18" s="927" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="928" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="929" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="930" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="304" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="305" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB7" s="306" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC7" s="307" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD7" s="308" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="309" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF7" s="310" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="311" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH7" s="312" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI7" s="313" t="s">
+      <c r="J18" s="931" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="932" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="933" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="934" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="935" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="936" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="937" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q18" s="938" t="s">
+        <v>93</v>
+      </c>
+      <c r="R18" s="939" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" s="940" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="941" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="942" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="943" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="944" t="s">
+        <v>210</v>
+      </c>
+      <c r="X18" s="945" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="946" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z18" s="947" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA18" s="948" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="949" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC18" s="950" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="951" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE18" s="952" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF18" s="953" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG18" s="954" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH18" s="955" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI18" s="956" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ18" s="957" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK18" s="958" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" s="959" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM18" s="960" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN18" s="961" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO18" s="962" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" s="963" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ18" s="965" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" s="966" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS18" s="967" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT18" s="968" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU18" s="969" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV18" s="970" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW18" s="971" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX18" s="972" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY18" s="973" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ18" s="974" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA18" s="975" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB18" s="976" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC18" s="977" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD18" s="978" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="979" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="980" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="981" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="982" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="983" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="984" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="985" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="986" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="987" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="988" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="989" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="990" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="991" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="992" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="993" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="994" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="995" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="996" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" s="997" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="998" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="999" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" s="1000" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="1001" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="1002" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="1003" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z19" s="1004" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA19" s="1005" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" s="1006" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" s="1007" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD19" s="1008" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE19" s="1009" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF19" s="1010" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG19" s="1011" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH19" s="1012" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI19" s="1013" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ19" s="1014" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK19" s="1015" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL19" s="1016" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM19" s="1017" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN19" s="1018" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO19" s="1019" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP19" s="1020" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ19" s="1022" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR19" s="1023" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS19" s="1024" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" s="1025" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU19" s="1026" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV19" s="1027" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW19" s="1028" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX19" s="1029" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY19" s="1030" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ19" s="1031" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA19" s="1032" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB19" s="1033" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC19" s="1034" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD19" s="1035" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1036" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1037" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1038" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="1039" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="1040" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1041" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1042" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="1043" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1044" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1045" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1046" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="1047" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="1048" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1049" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="1050" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="1051" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="1052" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" s="1053" t="s">
         <v>80</v>
       </c>
-      <c r="AJ7" s="314" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK7" s="315" t="s">
+      <c r="S20" s="1054" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" s="1055" t="s">
+        <v>56</v>
+      </c>
+      <c r="U20" s="1056" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="1057" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="1058" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" s="1059" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" s="1060" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z20" s="1061" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA20" s="1062" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" s="1063" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC20" s="1064" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD20" s="1065" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE20" s="1066" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF20" s="1067" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20" s="1068" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="1069" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI20" s="1070" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ20" s="1071" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" s="1072" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL20" s="1073" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" s="1074" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN20" s="1075" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO20" s="1076" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP20" s="1077" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ20" s="1079" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR20" s="1080" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS20" s="1081" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="316" t="s">
+      <c r="AT20" s="1082" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU20" s="1083" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV20" s="1084" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW20" s="1085" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX20" s="1086" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY20" s="1087" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ20" s="1088" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA20" s="1089" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB20" s="1090" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC20" s="1091" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD20" s="1092" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1093" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="1094"/>
+      <c r="C21" s="1095"/>
+      <c r="D21" s="1096" t="s">
         <v>6</v>
       </c>
-      <c r="AM7" s="317" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN7" s="318" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO7" s="319" t="s">
+      <c r="E21" s="1097" t="s">
         <v>6</v>
       </c>
-      <c r="AP7" s="320" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ7" s="322" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR7" s="323" t="s">
+      <c r="F21" s="1098" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1099" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1100" t="s">
         <v>6</v>
       </c>
-      <c r="AS7" s="324" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT7" s="325" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU7" s="326" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV7" s="327" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW7" s="328" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX7" s="329" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY7" s="330" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ7" s="331" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA7" s="332" t="s">
-        <v>67</v>
+      <c r="I21" s="1101" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1102" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="1103" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1104" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1105" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1106" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="1107" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="1108" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="1109"/>
+      <c r="R21" s="1110" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="1111" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="1112"/>
+      <c r="U21" s="1113" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" s="1114" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="1115" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="1116" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="1119" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB21" s="1120" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21" s="1121"/>
+      <c r="AD21" s="1122" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE21" s="1123" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF21" s="1124"/>
+      <c r="AG21" s="1125" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH21" s="1126" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI21" s="1127" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="1128" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" s="1129" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL21" s="1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="1131" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN21" s="1132" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO21" s="1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP21" s="1134" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ21" s="1136" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR21" s="1137" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS21" s="1138" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT21" s="1139" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU21" s="1140" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV21" s="1141" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW21" s="1142" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX21" s="1143" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY21" s="1144" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ21" s="1145" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA21" s="1146" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB21" s="1147" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC21" s="1148" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD21" s="1149" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2355,6 +7649,7 @@
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="AV1:AX1"/>
     <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
